--- a/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>248629</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>224188</v>
+        <v>222878</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>276115</v>
+        <v>274808</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3306681745105894</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2981624951211409</v>
+        <v>0.2964209860717817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3672234546572161</v>
+        <v>0.3654857509137932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -762,19 +762,19 @@
         <v>289783</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>261409</v>
+        <v>259781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>322455</v>
+        <v>320214</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2943379969551259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2655174804997409</v>
+        <v>0.2638639029195</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3275230775535679</v>
+        <v>0.3252470855030941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>508</v>
@@ -783,19 +783,19 @@
         <v>538412</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>501629</v>
+        <v>496896</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>581140</v>
+        <v>576117</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3100695218417794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.288886513909719</v>
+        <v>0.2861604550728218</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3346767874478723</v>
+        <v>0.331784046285153</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>127817</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>108070</v>
+        <v>107973</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>148330</v>
+        <v>148018</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1699922485416851</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1437293879803452</v>
+        <v>0.1436001946078241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1972738603271278</v>
+        <v>0.1968593947277422</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -833,19 +833,19 @@
         <v>168819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>145441</v>
+        <v>144712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>192396</v>
+        <v>195464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1714730412250942</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1477274056690371</v>
+        <v>0.1469863656414536</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1954196725250753</v>
+        <v>0.1985364247863144</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -854,19 +854,19 @@
         <v>296636</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>266906</v>
+        <v>264897</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>326957</v>
+        <v>334088</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.170831835249278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1537103249295711</v>
+        <v>0.1525533784659394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1882934503140496</v>
+        <v>0.1924003815048068</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>139010</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117305</v>
+        <v>121164</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>161938</v>
+        <v>162356</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1848789371168166</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1560122733166262</v>
+        <v>0.1611446343765127</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2153718900662635</v>
+        <v>0.2159279255988529</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>173</v>
@@ -904,19 +904,19 @@
         <v>193372</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>169420</v>
+        <v>169127</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>221147</v>
+        <v>222433</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1964110335945609</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1720829307087193</v>
+        <v>0.1717856497644149</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2246232967902169</v>
+        <v>0.2259292452354357</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>316</v>
@@ -925,19 +925,19 @@
         <v>332382</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>298387</v>
+        <v>298627</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>365211</v>
+        <v>368932</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1914174586950723</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1718403009865941</v>
+        <v>0.1719784767798841</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.210323567547459</v>
+        <v>0.2124664393760612</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>135797</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>115069</v>
+        <v>116144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158313</v>
+        <v>158803</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1806050429831195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1530376042213308</v>
+        <v>0.1544672754115887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2105514388061253</v>
+        <v>0.2112033423374869</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -975,19 +975,19 @@
         <v>190297</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>166826</v>
+        <v>165684</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221439</v>
+        <v>215903</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1932882649837491</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1694482966693981</v>
+        <v>0.1682883186479364</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.224919159426188</v>
+        <v>0.2192966644232351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>307</v>
@@ -996,19 +996,19 @@
         <v>326094</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>292101</v>
+        <v>293942</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>358343</v>
+        <v>360887</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1877962350523993</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1682201249526511</v>
+        <v>0.1692800068331327</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2063687609071274</v>
+        <v>0.2078336232435241</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>100646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>83833</v>
+        <v>84328</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>120516</v>
+        <v>119763</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1338555968477895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1114954082616076</v>
+        <v>0.112153974403826</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1602825869546722</v>
+        <v>0.1592804542524161</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -1046,19 +1046,19 @@
         <v>142254</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>119313</v>
+        <v>120832</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>165402</v>
+        <v>166814</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1444896632414699</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1211884588642404</v>
+        <v>0.1227308425891444</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1680020877266815</v>
+        <v>0.169435799375248</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>229</v>
@@ -1067,19 +1067,19 @@
         <v>242899</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>216415</v>
+        <v>214365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>274130</v>
+        <v>275569</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1398849491614708</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1246324942457242</v>
+        <v>0.1234522079615024</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1578705626974188</v>
+        <v>0.1586990813633114</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>480739</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>440053</v>
+        <v>441337</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>517384</v>
+        <v>520001</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2341004886102632</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2142881539588422</v>
+        <v>0.2149133250310101</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2519453731942874</v>
+        <v>0.2532193678532467</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>439</v>
@@ -1192,19 +1192,19 @@
         <v>452030</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>413636</v>
+        <v>419636</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>490146</v>
+        <v>492587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2288099345508545</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2093753484278904</v>
+        <v>0.2124124947712002</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2481033644721168</v>
+        <v>0.2493389838128279</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>895</v>
@@ -1213,19 +1213,19 @@
         <v>932769</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>882526</v>
+        <v>885150</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>988025</v>
+        <v>990345</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2315064130489684</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2190363129903428</v>
+        <v>0.2196876535581784</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2452204174209711</v>
+        <v>0.2457963053933956</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>415085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>381734</v>
+        <v>377369</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>454070</v>
+        <v>452250</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2021295342047416</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1858891819915852</v>
+        <v>0.1837636142057089</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.221113994911745</v>
+        <v>0.2202274139856009</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>347</v>
@@ -1263,19 +1263,19 @@
         <v>364278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>330401</v>
+        <v>331064</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>398884</v>
+        <v>402481</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1843913966741366</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1672431866413126</v>
+        <v>0.167579019539921</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2019081001220175</v>
+        <v>0.2037291854053389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>740</v>
@@ -1284,19 +1284,19 @@
         <v>779363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>728442</v>
+        <v>729157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>827081</v>
+        <v>830360</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1934321334118706</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.180793927979243</v>
+        <v>0.1809713868451518</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2052753700088243</v>
+        <v>0.2060891970693051</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>446817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>409483</v>
+        <v>408577</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>486966</v>
+        <v>489116</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2175817643409838</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1994017352716956</v>
+        <v>0.1989603033771155</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.237132715617515</v>
+        <v>0.2381799956226658</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>413</v>
@@ -1334,19 +1334,19 @@
         <v>429513</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>395888</v>
+        <v>393309</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>473401</v>
+        <v>470573</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2174121979598891</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2003917375671134</v>
+        <v>0.199086282836176</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2396274601091118</v>
+        <v>0.2381960604218493</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>831</v>
@@ -1358,16 +1358,16 @@
         <v>822087</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>932162</v>
+        <v>932158</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2174986221974057</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2040357981221127</v>
+        <v>0.2040359776398933</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2313557776716657</v>
+        <v>0.2313546773610933</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>363361</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>331016</v>
+        <v>331485</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>398561</v>
+        <v>401804</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1769422852995257</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1611913286390037</v>
+        <v>0.1614196941693598</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1940830289227816</v>
+        <v>0.1956624601432064</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>337</v>
@@ -1405,19 +1405,19 @@
         <v>350221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>316460</v>
+        <v>317371</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>384697</v>
+        <v>389438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1772757251956149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1601866891916492</v>
+        <v>0.1606478827372003</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1947268203502283</v>
+        <v>0.1971270479592399</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>685</v>
@@ -1426,19 +1426,19 @@
         <v>713582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>663568</v>
+        <v>667736</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>761077</v>
+        <v>767346</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1771057782486371</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1646927609226902</v>
+        <v>0.165727069862918</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1888936489869007</v>
+        <v>0.1904495962601782</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>347556</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>313279</v>
+        <v>311420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>379394</v>
+        <v>387202</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1692459275444856</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1525542653071698</v>
+        <v>0.151649111652459</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.184749458100687</v>
+        <v>0.1885518065430036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>360</v>
@@ -1476,19 +1476,19 @@
         <v>379528</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347083</v>
+        <v>343722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>417993</v>
+        <v>414873</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1921107456195049</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1756872989784122</v>
+        <v>0.1739859029014097</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2115808298216588</v>
+        <v>0.2100017036222142</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>677</v>
@@ -1497,19 +1497,19 @@
         <v>727085</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680141</v>
+        <v>676556</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>776935</v>
+        <v>778647</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1804570530931183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1688059219443024</v>
+        <v>0.167916277141236</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.192829451442155</v>
+        <v>0.1932545411210057</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>91382</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74906</v>
+        <v>74970</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>110141</v>
+        <v>110823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1677687497310547</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1375206100161589</v>
+        <v>0.1376382974067393</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2022095414968353</v>
+        <v>0.2034617571456935</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1622,19 +1622,19 @@
         <v>90622</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>73813</v>
+        <v>73867</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>108359</v>
+        <v>107706</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1663752122192992</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1355158003230622</v>
+        <v>0.1356144928409851</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1989400901176227</v>
+        <v>0.1977396523148067</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>173</v>
@@ -1643,19 +1643,19 @@
         <v>182004</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>158185</v>
+        <v>157765</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>210421</v>
+        <v>208572</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1670719842500694</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1452078320127395</v>
+        <v>0.1448219575781589</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1931578712125213</v>
+        <v>0.1914607634361653</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>91221</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>72356</v>
+        <v>73920</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>111533</v>
+        <v>110888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1674741929414606</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1328386313296716</v>
+        <v>0.1357101933031991</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.204763934859465</v>
+        <v>0.2035806052952141</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>102</v>
@@ -1693,19 +1693,19 @@
         <v>106100</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87078</v>
+        <v>88056</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124879</v>
+        <v>126924</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1947925525997236</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1598688413368215</v>
+        <v>0.1616638027892508</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2292695638666688</v>
+        <v>0.2330240589093646</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>184</v>
@@ -1714,19 +1714,19 @@
         <v>197322</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>174177</v>
+        <v>173073</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>226141</v>
+        <v>224589</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1811333085708915</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1598873261593035</v>
+        <v>0.1588736730539105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2075884794898087</v>
+        <v>0.2061632269739534</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>133617</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>113203</v>
+        <v>112985</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>154758</v>
+        <v>154767</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2453080807004157</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.207830057293066</v>
+        <v>0.207429378185929</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2841220539815844</v>
+        <v>0.2841376690946384</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>112</v>
@@ -1764,19 +1764,19 @@
         <v>117474</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98769</v>
+        <v>97867</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>139932</v>
+        <v>138494</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2156728362137883</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1813330953569856</v>
+        <v>0.1796772738501741</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.256904637743948</v>
+        <v>0.2542653133443433</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>235</v>
@@ -1785,19 +1785,19 @@
         <v>251090</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>223778</v>
+        <v>223096</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>279217</v>
+        <v>281126</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2304905281016139</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2054194251257024</v>
+        <v>0.2047934484059657</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2563097462283278</v>
+        <v>0.2580617789204503</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>103058</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>84596</v>
+        <v>85586</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>123456</v>
+        <v>122993</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1892043539735905</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1553104684433229</v>
+        <v>0.1571289072921016</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2266545243416008</v>
+        <v>0.225804548805425</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -1835,19 +1835,19 @@
         <v>96938</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79412</v>
+        <v>80030</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>115397</v>
+        <v>115626</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1779708575958674</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1457938936826393</v>
+        <v>0.146930053247615</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2118596468957576</v>
+        <v>0.2122807140865345</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>187</v>
@@ -1856,19 +1856,19 @@
         <v>199995</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>175360</v>
+        <v>174821</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>230451</v>
+        <v>230081</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1835876321840851</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1609730103575135</v>
+        <v>0.160479001789717</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2115445757638348</v>
+        <v>0.2112048241748496</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>125412</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105990</v>
+        <v>105695</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>146853</v>
+        <v>146441</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2302446226534785</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1945878644049148</v>
+        <v>0.1940458861629062</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2696084628813633</v>
+        <v>0.2688530843105557</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>126</v>
@@ -1906,19 +1906,19 @@
         <v>133550</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>114277</v>
+        <v>113841</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>155493</v>
+        <v>154014</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2451885413713214</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2098046369095406</v>
+        <v>0.2090046193713462</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2854744221488261</v>
+        <v>0.2827590540365579</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -1927,19 +1927,19 @@
         <v>258962</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>233661</v>
+        <v>230390</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>288189</v>
+        <v>288529</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2377165468933401</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2144914819624432</v>
+        <v>0.2114886037231044</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2645456387035133</v>
+        <v>0.2648575813539648</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>820749</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>774203</v>
+        <v>770830</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>870951</v>
+        <v>868573</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2449892286552882</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2310952820512694</v>
+        <v>0.2300885421577018</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2599742125520592</v>
+        <v>0.2592643679446537</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>784</v>
@@ -2052,19 +2052,19 @@
         <v>832435</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>781557</v>
+        <v>777618</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>879729</v>
+        <v>883674</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2375142845019911</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2229974527476635</v>
+        <v>0.2218735646991739</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.251008375064137</v>
+        <v>0.2521340272313078</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1576</v>
@@ -2073,19 +2073,19 @@
         <v>1653185</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1583085</v>
+        <v>1578341</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1723491</v>
+        <v>1716567</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2411674457041652</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2309413251166287</v>
+        <v>0.2302492098649066</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2514237876382306</v>
+        <v>0.2504137153032224</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>634123</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>587387</v>
+        <v>586912</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>678421</v>
+        <v>680699</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1892822258900061</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1753317878836638</v>
+        <v>0.175190086886187</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2025049543279543</v>
+        <v>0.2031849785102393</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>601</v>
@@ -2123,19 +2123,19 @@
         <v>639198</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>594365</v>
+        <v>593800</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>686905</v>
+        <v>684603</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1823789728580156</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1695868694625876</v>
+        <v>0.1694257319751472</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1959909938873186</v>
+        <v>0.1953340532571195</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1207</v>
@@ -2144,19 +2144,19 @@
         <v>1273321</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1209536</v>
+        <v>1203513</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1340726</v>
+        <v>1342789</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1857527366785967</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1764477497471094</v>
+        <v>0.1755690459771445</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1955858376012646</v>
+        <v>0.1958867546581901</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>719443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>674288</v>
+        <v>671533</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>768254</v>
+        <v>770517</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2147499579379298</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2012712934617605</v>
+        <v>0.200448813452914</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2293196554142344</v>
+        <v>0.229995113833316</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>698</v>
@@ -2194,19 +2194,19 @@
         <v>740358</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>692747</v>
+        <v>690627</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>786311</v>
+        <v>791821</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.211242459057865</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1976579126610042</v>
+        <v>0.1970529550065285</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2243537851912112</v>
+        <v>0.2259259951967967</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1382</v>
@@ -2215,19 +2215,19 @@
         <v>1459802</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1398007</v>
+        <v>1389130</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1529586</v>
+        <v>1520637</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2129566469584756</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2039419866221013</v>
+        <v>0.202646950534586</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.223136857782727</v>
+        <v>0.2218313154656353</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>602215</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>560260</v>
+        <v>558575</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>650863</v>
+        <v>646740</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1797579949742064</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1672346251401635</v>
+        <v>0.1667315786778738</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1942789098419936</v>
+        <v>0.1930484952285408</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>603</v>
@@ -2265,19 +2265,19 @@
         <v>637456</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>595329</v>
+        <v>586918</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>686093</v>
+        <v>686881</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1818818277193461</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1698619103810923</v>
+        <v>0.1674622508010123</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.195759152950958</v>
+        <v>0.195983934856355</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1179</v>
@@ -2286,19 +2286,19 @@
         <v>1239671</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1180241</v>
+        <v>1180334</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1308374</v>
+        <v>1304398</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1808438663345739</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1721741615185263</v>
+        <v>0.172187781190927</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1908663164334494</v>
+        <v>0.1902862292814827</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>573614</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>531451</v>
+        <v>530294</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>620057</v>
+        <v>621179</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1712205925425695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1586351004021421</v>
+        <v>0.158289974340868</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1850836218595927</v>
+        <v>0.1854185785124175</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>615</v>
@@ -2336,19 +2336,19 @@
         <v>655332</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>607167</v>
+        <v>607334</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>704244</v>
+        <v>703293</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1869824558627823</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.17323973096019</v>
+        <v>0.1732874671255388</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2009381801890977</v>
+        <v>0.2006669019702548</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1148</v>
@@ -2357,19 +2357,19 @@
         <v>1228946</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1164393</v>
+        <v>1168018</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1290529</v>
+        <v>1296637</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1792793043241886</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1698623187447875</v>
+        <v>0.1703911249534424</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1882629728999913</v>
+        <v>0.1891541119329564</v>
       </c>
     </row>
     <row r="27">
